--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntn1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntn1-Notch2.xlsx
@@ -546,10 +546,10 @@
         <v>0.35974</v>
       </c>
       <c r="I2">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="J2">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N2">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q2">
-        <v>0.2541623456377777</v>
+        <v>0.2675402368444444</v>
       </c>
       <c r="R2">
-        <v>2.28746111074</v>
+        <v>2.4078621316</v>
       </c>
       <c r="S2">
-        <v>0.009282687625129437</v>
+        <v>0.004953213776185595</v>
       </c>
       <c r="T2">
-        <v>0.009282687625129437</v>
+        <v>0.004953213776185595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.35974</v>
       </c>
       <c r="I3">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="J3">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q3">
         <v>2.736285445553333</v>
@@ -638,10 +638,10 @@
         <v>24.62656900998</v>
       </c>
       <c r="S3">
-        <v>0.09993645195759611</v>
+        <v>0.05065932109633008</v>
       </c>
       <c r="T3">
-        <v>0.0999364519575961</v>
+        <v>0.05065932109633007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.35974</v>
       </c>
       <c r="I4">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="J4">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N4">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O4">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P4">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q4">
-        <v>4.040063907226666</v>
+        <v>6.957581648188888</v>
       </c>
       <c r="R4">
-        <v>36.36057516504</v>
+        <v>62.61823483369999</v>
       </c>
       <c r="S4">
-        <v>0.1475539232305967</v>
+        <v>0.1288119860968154</v>
       </c>
       <c r="T4">
-        <v>0.1475539232305967</v>
+        <v>0.1288119860968154</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.35974</v>
       </c>
       <c r="I5">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="J5">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N5">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O5">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P5">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q5">
-        <v>1.432100437708889</v>
+        <v>1.819006163837778</v>
       </c>
       <c r="R5">
-        <v>12.88890393938</v>
+        <v>16.37105547454</v>
       </c>
       <c r="S5">
-        <v>0.05230413253270991</v>
+        <v>0.03367690219593556</v>
       </c>
       <c r="T5">
-        <v>0.05230413253270991</v>
+        <v>0.03367690219593556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.35974</v>
       </c>
       <c r="I6">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="J6">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N6">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q6">
-        <v>5.9886421436</v>
+        <v>4.960465772113333</v>
       </c>
       <c r="R6">
-        <v>53.8977792924</v>
+        <v>44.64419194902</v>
       </c>
       <c r="S6">
-        <v>0.2187212042689834</v>
+        <v>0.0918375781098479</v>
       </c>
       <c r="T6">
-        <v>0.2187212042689834</v>
+        <v>0.0918375781098479</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="H7">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="I7">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="J7">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N7">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q7">
-        <v>0.2273895988606666</v>
+        <v>0.5956626377333335</v>
       </c>
       <c r="R7">
-        <v>2.046506389746</v>
+        <v>5.360963739600001</v>
       </c>
       <c r="S7">
-        <v>0.008304875413902844</v>
+        <v>0.01102803981180322</v>
       </c>
       <c r="T7">
-        <v>0.008304875413902844</v>
+        <v>0.01102803981180322</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="H8">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="I8">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="J8">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q8">
-        <v>2.448052831238</v>
+        <v>6.092178975820001</v>
       </c>
       <c r="R8">
-        <v>22.032475481142</v>
+        <v>54.82961078238</v>
       </c>
       <c r="S8">
-        <v>0.089409427132775</v>
+        <v>0.1127900056676895</v>
       </c>
       <c r="T8">
-        <v>0.08940942713277499</v>
+        <v>0.1127900056676895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="H9">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="I9">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="J9">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N9">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O9">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P9">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q9">
-        <v>3.614494936024</v>
+        <v>15.49064725996667</v>
       </c>
       <c r="R9">
-        <v>32.530454424216</v>
+        <v>139.4158253397</v>
       </c>
       <c r="S9">
-        <v>0.1320110078836789</v>
+        <v>0.2867923281936492</v>
       </c>
       <c r="T9">
-        <v>0.1320110078836789</v>
+        <v>0.2867923281936491</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="H10">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="I10">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="J10">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N10">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O10">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P10">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q10">
-        <v>1.281247004711333</v>
+        <v>4.049910482193334</v>
       </c>
       <c r="R10">
-        <v>11.531223042402</v>
+        <v>36.44919433974</v>
       </c>
       <c r="S10">
-        <v>0.04679456229255172</v>
+        <v>0.07497964653586656</v>
       </c>
       <c r="T10">
-        <v>0.04679456229255172</v>
+        <v>0.07497964653586654</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="H11">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="I11">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="J11">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N11">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q11">
-        <v>5.357815420440001</v>
+        <v>11.04418595518</v>
       </c>
       <c r="R11">
-        <v>48.22033878396001</v>
+        <v>99.39767359662001</v>
       </c>
       <c r="S11">
-        <v>0.195681727662076</v>
+        <v>0.204470978515877</v>
       </c>
       <c r="T11">
-        <v>0.195681727662076</v>
+        <v>0.204470978515877</v>
       </c>
     </row>
   </sheetData>
